--- a/LP/hw/hw4/hw4.xlsx
+++ b/LP/hw/hw4/hw4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whylo\Desktop\MITA_First_Year\LP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whylo\Desktop\MITA_First_Year\LP\hw\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A28FDF6-86D9-4793-A3AA-20D10D554E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF140738-37BC-4CE4-A24D-A6D3C6959A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BB637A-DE6C-438E-8B52-22750066295B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
   <si>
     <t>x0</t>
   </si>
@@ -70,10 +70,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +119,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -126,6 +141,8 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF35AF4-7224-485B-A509-D6F515692D14}">
-  <dimension ref="A2:K99"/>
+  <dimension ref="A2:W162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,8 +496,38 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -511,8 +558,38 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>-1</v>
+      </c>
+      <c r="T3">
+        <v>-1</v>
+      </c>
+      <c r="U3">
+        <v>-1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -523,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -543,8 +620,38 @@
       <c r="J4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -575,8 +682,38 @@
       <c r="J5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -607,8 +744,38 @@
       <c r="J6">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -639,50 +806,120 @@
       <c r="J8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>A3+A10+A11+A12</f>
+        <f t="shared" ref="A9:J9" si="0">A3+A10+A11+A12</f>
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <f>B3+B10+B11+B12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <f>C3+C10+C11+C12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <f>D3+D10+D11+D12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9" s="3">
-        <f>E3+E10+E11+E12</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F9" s="3">
-        <f>F3+F10+F11+F12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f>G3+G10+G11+G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f>H3+H10+H11+H12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f>I3+I10+I11+I12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f>J3+J10+J11+J12</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="3">
+        <f>M3+M4+M5+M6</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:V9" si="1">N3+N4+N5+N6</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -716,8 +953,38 @@
       <c r="K10">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -748,8 +1015,38 @@
       <c r="J11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -783,14 +1080,44 @@
       <c r="K12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -821,185 +1148,387 @@
       <c r="J14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>A9-4*A16</f>
+        <f t="shared" ref="A15:J15" si="2">A9-4*A16</f>
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <f>B9-4*B16</f>
+        <f t="shared" si="2"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="C15" s="3">
-        <f>C9-4*C16</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333335</v>
       </c>
       <c r="D15" s="3">
-        <f>D9-4*D16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f>E9-4*E16</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F15" s="3">
-        <f>F9-4*F16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <f>G9-4*G16</f>
+        <f t="shared" si="2"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="H15" s="3">
-        <f>H9-4*H16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <f>I9-4*I16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <f>J9-4*J16</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="3">
+        <f>M9-4*M18</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:V15" si="3">N9-4*N18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333326</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="3"/>
+        <v>11.333333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A10/3</f>
+        <f t="shared" ref="A16:J16" si="4">A10/3</f>
         <v>0</v>
       </c>
       <c r="B16">
-        <f>B10/3</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C16">
-        <f>C10/3</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="1">
-        <f>D10/3</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>E10/3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>F10/3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>G10/3</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H16" s="1">
-        <f>H10/3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>I10/3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>J10/3</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>M10-2*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:V16" si="5">N10-2*N18</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="W16">
+        <f>V16/N16</f>
+        <v>1.999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A11</f>
+        <f t="shared" ref="A17:J17" si="6">A11</f>
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f>B11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f>C11</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="D17" s="1">
-        <f>D11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>E11</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f>F11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>G11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>H11</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <f>I11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>J11</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>M11+M18</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:V17" si="7">N11+N18</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>10.666666666666668</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17:W18" si="8">V17/N17</f>
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A12-A16</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:J18" si="0">B12-B16</f>
+        <f t="shared" ref="B18:J18" si="9">B12-B16</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>10.666666666666666</v>
       </c>
       <c r="K18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>M12/3</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:V18" si="10">N12/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1010,7 +1539,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1041,188 +1570,378 @@
       <c r="J20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A15-5/3*A17</f>
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21:K21" si="1">B15-5/3*B17</f>
+        <f t="shared" ref="B21:K21" si="11">B15-5/3*B17</f>
         <v>0</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-1.6666666666666667</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>6.6666666666666643</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>M15-5*M16</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:V21" si="12">N15-5*N16</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="12"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="12"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A16-A17/3</f>
         <v>0</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:J22" si="2">B16-B17/3</f>
+        <f t="shared" ref="B22:J22" si="13">B16-B17/3</f>
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.3333333333333335</v>
       </c>
       <c r="K22">
         <f>J22/C22</f>
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>M16*3</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:V22" si="14">N16*3</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="14"/>
+        <v>-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="14"/>
+        <v>-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="14"/>
+        <v>1.9999999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A17</f>
+        <f t="shared" ref="A23:J23" si="15">A17</f>
         <v>0</v>
       </c>
       <c r="B23" s="1">
-        <f>B17</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C23">
-        <f>C17</f>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="D23" s="1">
-        <f>D17</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>E17</f>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="F23">
-        <f>F17</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>G17</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>H17</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f>I17</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>J17</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f>M17-4*M16</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" ref="N23:V23" si="16">N17-4*N16</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="16"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="16"/>
+        <v>8.0000000000000036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A18-A17*2/3</f>
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:J24" si="3">B18-B17*2/3</f>
+        <f t="shared" ref="B24:J24" si="17">B18-B17*2/3</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="K24">
         <f>J24/C24</f>
         <v>2.2222222222222219</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f>M18-M16</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ref="N24:V24" si="18">N18-N16</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="18"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1230,7 +1949,7 @@
       <c r="F25" s="3"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1261,176 +1980,369 @@
       <c r="J26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A21-A24</f>
+        <f t="shared" ref="A27:J27" si="19">A21-A24</f>
         <v>1</v>
       </c>
       <c r="B27" s="3">
-        <f>B21-B24</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <f>C21-C24</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f>D21-D24</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f>E21-E24</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>F21-F24</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>G21-G24</f>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="H27">
-        <f>H21-H24</f>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I27">
-        <f>I21-I24</f>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="J27">
-        <f>J21-J24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f>M21-M23</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" ref="N27:V27" si="20">N21-N23</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="T27" s="3">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="20"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A22</f>
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:J28" si="4">B22</f>
+        <f t="shared" ref="B28:J28" si="21">B22</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="3">
+        <f>M22+2*M29</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28:V28" si="22">N22+2*N29</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333315</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="22"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="22"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="22"/>
+        <v>7.3333333333333339</v>
+      </c>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ref="A29:J29" si="5">A23</f>
+        <f t="shared" ref="A29:J29" si="23">A23</f>
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="3">
+        <f>M23/3</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29:V29" si="24">N23/3</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="24"/>
+        <v>-0.33333333333333343</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="24"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="24"/>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="24"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="24"/>
+        <v>2.6666666666666679</v>
+      </c>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ref="A30:J30" si="6">A24</f>
+        <f t="shared" ref="A30:J30" si="25">A24</f>
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>6.6666666666666661</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f>M24-M29</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30:V30" si="26">N24-N29</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="26"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="26"/>
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1452,8 +2364,29 @@
       <c r="G32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1475,8 +2408,29 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-3</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1498,8 +2452,29 @@
       <c r="G34">
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.33333333333333315</v>
+      </c>
+      <c r="Q34">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1521,8 +2496,29 @@
       <c r="G35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-0.33333333333333343</v>
+      </c>
+      <c r="Q35">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2.6666666666666679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1544,8 +2540,29 @@
       <c r="G36">
         <v>6.6666666666666661</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="Q36">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1567,132 +2584,244 @@
       <c r="G38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A33-4*A35+3*A34</f>
         <v>1</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:G39" si="7">B33-4*B35+3*B34</f>
+        <f t="shared" ref="B39:G39" si="27">B33-4*B35+3*B34</f>
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="D39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="27"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f>M33-4*M34-5*M36</f>
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:S39" si="28">N33-4*N34-5*N36</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="28"/>
+        <v>-5.9999999999999991</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="28"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A34</f>
         <v>0</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ref="B40:G40" si="8">B34</f>
+        <f t="shared" ref="B40:G40" si="29">B34</f>
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0.33333333333333315</v>
+      </c>
+      <c r="Q40">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" ref="A41:G41" si="9">A35</f>
+        <f t="shared" ref="A41:G41" si="30">A35</f>
         <v>0</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="C41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-0.33333333333333343</v>
+      </c>
+      <c r="Q41">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>2.6666666666666679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" ref="A42:G42" si="10">A36</f>
+        <f t="shared" ref="A42:G42" si="31">A36</f>
         <v>0</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="H42" s="3">
         <f>G42/C42</f>
         <v>2.2222222222222219</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1714,74 +2843,151 @@
       <c r="G44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>A39-12*A40</f>
         <v>1</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:G45" si="11">B39-12*B40</f>
+        <f t="shared" ref="B45:G45" si="32">B39-12*B40</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>-12</v>
       </c>
       <c r="E45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>-36</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f>M39-M48</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45:S45" si="33">N39-N48</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="33"/>
+        <v>-3</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="33"/>
+        <v>-6.9999999999999991</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <f t="shared" si="33"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>A40</f>
         <v>0</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ref="B46:G46" si="12">B40</f>
+        <f t="shared" ref="B46:G46" si="34">B40</f>
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>1.3333333333333335</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f>M40+2*M42</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46:S46" si="35">N40+2*N42</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>A41+A40</f>
         <v>0</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47:G47" si="13">B41+B40</f>
+        <f t="shared" ref="B47:G47" si="36">B41+B40</f>
         <v>1</v>
       </c>
       <c r="C47" s="1">
@@ -1789,53 +2995,109 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>7.3333333333333339</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f>M41+M42</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47:S47" si="37">N41+N42</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="37"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>A42-3*A40</f>
         <v>0</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ref="B48:G48" si="14">B42-3*B40</f>
+        <f t="shared" ref="B48:G48" si="38">B42-3*B40</f>
         <v>0</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>2.6666666666666661</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f>M42*3</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48:S48" si="39">N42*3</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="39"/>
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1858,127 +3120,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>A45-A52</f>
         <v>1</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:G51" si="15">B45-B52</f>
+        <f t="shared" ref="B51:G51" si="40">B45-B52</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>-15</v>
       </c>
       <c r="E51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>-40</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>A46*3</f>
         <v>0</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:G52" si="16">B46*3</f>
+        <f t="shared" ref="B52:G52" si="41">B46*3</f>
         <v>0</v>
       </c>
       <c r="C52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>A47+2/3*A52</f>
         <v>0</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ref="B53:G53" si="17">B47+2/3*B52</f>
+        <f t="shared" ref="B53:G53" si="42">B47+2/3*B52</f>
         <v>1</v>
       </c>
       <c r="C53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>A48+A46</f>
         <v>0</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ref="B54:G54" si="18">B48+B46</f>
+        <f t="shared" ref="B54:G54" si="43">B48+B46</f>
         <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="D54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>-2</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2009,8 +3271,38 @@
       <c r="J59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s">
+        <v>6</v>
+      </c>
+      <c r="T59" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" t="s">
+        <v>7</v>
+      </c>
+      <c r="V59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2041,8 +3333,38 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60">
+        <v>-3</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>-100</v>
+      </c>
+      <c r="T60">
+        <v>-100</v>
+      </c>
+      <c r="U60">
+        <v>-100</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2073,8 +3395,38 @@
       <c r="J61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2105,8 +3457,38 @@
       <c r="J62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>-1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -2137,8 +3519,38 @@
       <c r="J63">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2169,176 +3581,336 @@
       <c r="J65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65" t="s">
+        <v>8</v>
+      </c>
+      <c r="U65" t="s">
+        <v>7</v>
+      </c>
+      <c r="V65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>A60+100*A61+100*A62+100*A63</f>
         <v>1</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:J66" si="19">B60+100*B61+100*B62+100*B63</f>
+        <f t="shared" ref="B66:J66" si="44">B60+100*B61+100*B62+100*B63</f>
         <v>304</v>
       </c>
       <c r="C66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>405</v>
       </c>
       <c r="D66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>397</v>
       </c>
       <c r="E66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>-100</v>
       </c>
       <c r="F66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="G66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>M60+100*M61+100*M62+100*M63</f>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:V66" si="45">N60+100*N61+100*N62+100*N63</f>
+        <v>304</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="45"/>
+        <v>405</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="45"/>
+        <v>197</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="45"/>
+        <v>-100</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="45"/>
+        <v>100</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="45"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>A61</f>
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:J67" si="20">B61</f>
+        <f t="shared" ref="B67:J67" si="46">B61</f>
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="E67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:J68" si="21">A62</f>
+        <f t="shared" ref="A68:J68" si="47">A62</f>
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="D68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>-1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ref="A69:J69" si="22">A63</f>
+        <f t="shared" ref="A69:J69" si="48">A63</f>
         <v>0</v>
       </c>
       <c r="B69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" s="2">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2369,176 +3941,378 @@
       <c r="J71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>2</v>
+      </c>
+      <c r="P71" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R71" t="s">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s">
+        <v>6</v>
+      </c>
+      <c r="T71" t="s">
+        <v>8</v>
+      </c>
+      <c r="U71" t="s">
+        <v>7</v>
+      </c>
+      <c r="V71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>A66-405*A75</f>
+        <f t="shared" ref="A72:J72" si="49">A66-405*A75</f>
         <v>1</v>
       </c>
       <c r="B72">
-        <f>B66-405*B75</f>
+        <f t="shared" si="49"/>
         <v>169</v>
       </c>
       <c r="C72">
-        <f>C66-405*C75</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D72">
-        <f>D66-405*D75</f>
+        <f t="shared" si="49"/>
         <v>262</v>
       </c>
       <c r="E72">
-        <f>E66-405*E75</f>
+        <f t="shared" si="49"/>
         <v>-100</v>
       </c>
       <c r="F72">
-        <f>F66-405*F75</f>
+        <f t="shared" si="49"/>
         <v>-35</v>
       </c>
       <c r="G72">
-        <f>G66-405*G75</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f>H66-405*H75</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>I66-405*I75</f>
+        <f t="shared" si="49"/>
         <v>-135</v>
       </c>
       <c r="J72">
-        <f>J66-405*J75</f>
+        <f t="shared" si="49"/>
         <v>1109.9999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f>M66-405*M75</f>
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:U72" si="50">N66-405*N75</f>
+        <v>169</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="50"/>
+        <v>62</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="50"/>
+        <v>-100</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="50"/>
+        <v>-35</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="50"/>
+        <v>-135</v>
+      </c>
+      <c r="V72">
+        <f>V66-405*V75</f>
+        <v>1109.9999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>A67-2*A75</f>
+        <f t="shared" ref="A73:J73" si="51">A67-2*A75</f>
         <v>0</v>
       </c>
       <c r="B73">
-        <f>B67-2*B75</f>
+        <f t="shared" si="51"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="C73" s="1">
-        <f>C67-2*C75</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D73" s="2">
-        <f>D67-2*D75</f>
+        <f t="shared" si="51"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="E73">
-        <f>E67-2*E75</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>F67-2*F75</f>
+        <f t="shared" si="51"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="G73" s="1">
-        <f>G67-2*G75</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="H73" s="1">
-        <f>H67-2*H75</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>I67-2*I75</f>
+        <f t="shared" si="51"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="J73">
-        <f>J67-2*J75</f>
+        <f t="shared" si="51"/>
         <v>0.66666666666666607</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f>M67-2*M75</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" ref="N73:V73" si="52">N67-2*N75</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="52"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="52"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="52"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="52"/>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="W73">
+        <f>V73/N73</f>
+        <v>1.999999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>A68+A75</f>
+        <f t="shared" ref="A74:J74" si="53">A68+A75</f>
         <v>0</v>
       </c>
       <c r="B74">
-        <f>B68+B75</f>
+        <f t="shared" si="53"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="C74" s="1">
-        <f>C68+C75</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>D68+D75</f>
+        <f t="shared" si="53"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E74">
-        <f>E68+E75</f>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="F74">
-        <f>F68+F75</f>
+        <f t="shared" si="53"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G74" s="1">
-        <f>G68+G75</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f>H68+H75</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f>I68+I75</f>
+        <f t="shared" si="53"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J74">
-        <f>J68+J75</f>
+        <f t="shared" si="53"/>
         <v>10.666666666666668</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f>M68+M75</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:V74" si="54">N68+N75</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="54"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="54"/>
+        <v>-1</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="54"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="54"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="54"/>
+        <v>10.666666666666668</v>
+      </c>
+      <c r="W74">
+        <f t="shared" ref="W74:W75" si="55">V74/N74</f>
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>A69/3</f>
+        <f t="shared" ref="A75:J75" si="56">A69/3</f>
         <v>0</v>
       </c>
       <c r="B75">
-        <f>B69/3</f>
+        <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="C75" s="1">
-        <f>C69/3</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="D75">
-        <f>D69/3</f>
+        <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E75">
-        <f>E69/3</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>F69/3</f>
+        <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G75" s="1">
-        <f>G69/3</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>H69/3</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>I69/3</f>
+        <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J75">
-        <f>J69/3</f>
+        <f t="shared" si="56"/>
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f>M69/3</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75:V75" si="57">N69/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="57"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="57"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="57"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="57"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="55"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2569,176 +4343,366 @@
       <c r="J77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>2</v>
+      </c>
+      <c r="P77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s">
+        <v>6</v>
+      </c>
+      <c r="T77" t="s">
+        <v>8</v>
+      </c>
+      <c r="U77" t="s">
+        <v>7</v>
+      </c>
+      <c r="V77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>A72-262*A79</f>
         <v>1</v>
       </c>
       <c r="B78" s="5">
-        <f t="shared" ref="B78:J78" si="23">B72-262*B79</f>
+        <f t="shared" ref="B78:J78" si="58">B72-262*B79</f>
         <v>131.57142857142856</v>
       </c>
       <c r="C78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>-100</v>
       </c>
       <c r="F78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>39.857142857142847</v>
       </c>
       <c r="G78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>-112.28571428571428</v>
       </c>
       <c r="H78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>-60.142857142857153</v>
       </c>
       <c r="J78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v>1035.1428571428569</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f>M72-169*M79</f>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f>N72-169*N79</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f>O72-169*O79</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f>P72-169*P79</f>
+        <v>-107</v>
+      </c>
+      <c r="Q78">
+        <f>Q72-169*Q79</f>
+        <v>-100</v>
+      </c>
+      <c r="R78">
+        <f>R72-169*R79</f>
+        <v>303</v>
+      </c>
+      <c r="S78">
+        <f>S72-169*S79</f>
+        <v>-507</v>
+      </c>
+      <c r="T78">
+        <f>T72-169*T79</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>U72-169*U79</f>
+        <v>203</v>
+      </c>
+      <c r="V78">
+        <f>V72-169*V79</f>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>A73/7*3</f>
         <v>0</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" ref="B79:J79" si="24">B73/7*3</f>
+        <f t="shared" ref="B79:J79" si="59">B73/7*3</f>
         <v>0.14285714285714288</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>-0.2857142857142857</v>
       </c>
       <c r="G79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>-0.2857142857142857</v>
       </c>
       <c r="J79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="59"/>
         <v>0.28571428571428548</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f>M73*3</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <f>N73*3</f>
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <f>O73*3</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>P73*3</f>
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <f>Q73*3</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f>R73*3</f>
+        <v>-2</v>
+      </c>
+      <c r="S79">
+        <f>S73*3</f>
+        <v>3</v>
+      </c>
+      <c r="T79" s="1">
+        <f>T73*3</f>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>U73*3</f>
+        <v>-2</v>
+      </c>
+      <c r="V79">
+        <f>V73*3</f>
+        <v>1.9999999999999982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>A74-1/3*A79</f>
         <v>0</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" ref="B80:J80" si="25">B74-1/3*B79</f>
+        <f t="shared" ref="B80:J80" si="60">B74-1/3*B79</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="60"/>
         <v>10.571428571428573</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f>M74-4/3*M79</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <f>N74-4/3*N79</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <f>O74-4/3*O79</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>P74-4/3*P79</f>
+        <v>-1</v>
+      </c>
+      <c r="Q80">
+        <f>Q74-4/3*Q79</f>
+        <v>-1</v>
+      </c>
+      <c r="R80" s="2">
+        <f>R74-4/3*R79</f>
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <f>S74-4/3*S79</f>
+        <v>-4</v>
+      </c>
+      <c r="T80" s="1">
+        <f>T74-4/3*T79</f>
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <f>U74-4/3*U79</f>
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <f>V74-4/3*V79</f>
+        <v>8.0000000000000036</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>A75-1/3*A79</f>
         <v>0</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" ref="B81:J81" si="26">B75-1/3*B79</f>
+        <f t="shared" ref="B81:J81" si="61">B75-1/3*B79</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="61"/>
         <v>4.5714285714285721</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f>M75-M73</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <f>N75-N73</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <f>O75-O73</f>
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <f>P75-P73</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>Q75-Q73</f>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f>R75-R73</f>
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <f>S75-S73</f>
+        <v>-1</v>
+      </c>
+      <c r="T81" s="1">
+        <f>T75-T73</f>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f>U75-U73</f>
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <f>V75-V73</f>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2769,176 +4733,366 @@
       <c r="J83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>2</v>
+      </c>
+      <c r="P83" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s">
+        <v>6</v>
+      </c>
+      <c r="T83" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" t="s">
+        <v>7</v>
+      </c>
+      <c r="V83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>A78-(131*7+4)/7*A85</f>
         <v>1</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:J84" si="27">B78-(131*7+4)/7*B85</f>
+        <f t="shared" ref="B84:J84" si="62">B78-(131*7+4)/7*B85</f>
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>-921.00000000000011</v>
       </c>
       <c r="E84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>-100</v>
       </c>
       <c r="F84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>303</v>
       </c>
       <c r="G84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>-507.00000000000006</v>
       </c>
       <c r="H84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>203</v>
       </c>
       <c r="J84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="62"/>
         <v>772</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f>M78-303*M86</f>
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84:V84" si="63">N78-303*N86</f>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="63"/>
+        <v>-6</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="63"/>
+        <v>-103</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="63"/>
+        <v>-101</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="63"/>
+        <v>-100</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="63"/>
+        <v>-36.000000000000341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>A79*7</f>
         <v>0</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ref="B85:J85" si="28">B79*7</f>
+        <f t="shared" ref="B85:J85" si="64">B79*7</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>7</v>
       </c>
       <c r="E85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="64"/>
         <v>1.9999999999999982</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f>M79+2*M86</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" ref="N85:V85" si="65">N79+2*N86</f>
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="65"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="65"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="65"/>
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="65"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="65"/>
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>A80-9*A79</f>
         <v>0</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ref="B86:J86" si="29">B80-9*B79</f>
+        <f t="shared" ref="B86:J86" si="66">B80-9*B79</f>
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>-9</v>
       </c>
       <c r="E86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="G86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>-3.9999999999999996</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="J86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="66"/>
         <v>8.0000000000000036</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f>M80/3</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" ref="N86:V86" si="67">N80/3</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="67"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="67"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="67"/>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="67"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="67"/>
+        <v>2.6666666666666679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>A81-2*A79</f>
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87:J87" si="30">B81-2*B79</f>
+        <f t="shared" ref="B87:J87" si="68">B81-2*B79</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>-2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000009</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f>M81-M86</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" ref="N87:V87" si="69">N81-N86</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="69"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" si="69"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="69"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="69"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="69"/>
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2969,176 +5123,366 @@
       <c r="J89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>2</v>
+      </c>
+      <c r="P89" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s">
+        <v>6</v>
+      </c>
+      <c r="T89" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" t="s">
+        <v>7</v>
+      </c>
+      <c r="V89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>A84-303*A92</f>
         <v>1</v>
       </c>
       <c r="B90">
-        <f t="shared" ref="B90:J90" si="31">B84-303*B92</f>
+        <f t="shared" ref="B90:J90" si="70">B84-303*B92</f>
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>-12.000000000000114</v>
       </c>
       <c r="E90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>-103.00000000000006</v>
       </c>
       <c r="H90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>-101</v>
       </c>
       <c r="I90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>-99.999999999999943</v>
       </c>
       <c r="J90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="70"/>
         <v>-36.000000000000341</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f>M84-M93</f>
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ref="N90:V90" si="71">N84-N93</f>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="71"/>
+        <v>-3</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="71"/>
+        <v>-7</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="71"/>
+        <v>-104</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="71"/>
+        <v>-100</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="71"/>
+        <v>-100</v>
+      </c>
+      <c r="V90" s="7">
+        <f t="shared" si="71"/>
+        <v>-40.000000000000341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>A85+2*A92</f>
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" ref="B91:J91" si="32">B85+2*B92</f>
+        <f t="shared" ref="B91:J91" si="72">B85+2*B92</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="D91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>0.33333333333333348</v>
       </c>
       <c r="H91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="72"/>
         <v>7.3333333333333339</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f>M85+2*M87</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" ref="N91:V91" si="73">N85+2*N87</f>
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>A86/3</f>
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92:J92" si="33">B86/3</f>
+        <f t="shared" ref="B92:J92" si="74">B86/3</f>
         <v>0</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>-3</v>
       </c>
       <c r="E92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="H92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="74"/>
         <v>2.6666666666666679</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f>M86+M87</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" ref="N92:V92" si="75">N86+N87</f>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="75"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>A87-A92</f>
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93:J93" si="34">B87-B92</f>
+        <f t="shared" ref="B93:J93" si="76">B87-B92</f>
         <v>0</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="76"/>
         <v>1.333333333333333</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f>M87*3</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" ref="N93:V93" si="77">N87*3</f>
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="R93" s="1">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="77"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="77"/>
+        <v>-1</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="77"/>
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3170,172 +5514,1946 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>A90-A99</f>
         <v>1</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96:J96" si="35">B90-B99</f>
+        <f t="shared" ref="B96:J96" si="78">B90-B99</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-3</v>
       </c>
       <c r="D96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-15.000000000000114</v>
       </c>
       <c r="E96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-104.00000000000006</v>
       </c>
       <c r="H96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-100</v>
       </c>
       <c r="I96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-99.999999999999943</v>
       </c>
       <c r="J96" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="78"/>
         <v>-40.000000000000341</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>A91+2*A93</f>
         <v>0</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" ref="B97:J97" si="36">B91+2*B93</f>
+        <f t="shared" ref="B97:J97" si="79">B91+2*B93</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="H97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>A92+A93</f>
         <v>0</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ref="B98:J98" si="37">B92+B93</f>
+        <f t="shared" ref="B98:J98" si="80">B92+B93</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>-2</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="H98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>A93*3</f>
         <v>0</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" ref="B99:J99" si="38">B93*3</f>
+        <f t="shared" ref="B99:J99" si="81">B93*3</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="D99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="81"/>
         <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>-57</v>
+      </c>
+      <c r="D104">
+        <v>-9</v>
+      </c>
+      <c r="E104">
+        <v>-24</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C105" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="D105">
+        <v>-2.5</v>
+      </c>
+      <c r="E105">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <v>-1.5</v>
+      </c>
+      <c r="D106">
+        <v>-0.5</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>A104-10*A111</f>
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ref="B110:I110" si="82">B104-10*B111</f>
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="82"/>
+        <v>53</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="82"/>
+        <v>41</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="82"/>
+        <v>-204</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="82"/>
+        <v>-20</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>A105*2</f>
+        <v>0</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" ref="B111:I111" si="83">B105*2</f>
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="83"/>
+        <v>-11</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="83"/>
+        <v>-5</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="83"/>
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>A106-A105</f>
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" ref="B112:I112" si="84">B106-B105</f>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="84"/>
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="84"/>
+        <v>-8</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="84"/>
+        <v>-1</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>A107-A111</f>
+        <v>0</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" ref="B113:I113" si="85">B107-B111</f>
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="85"/>
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="85"/>
+        <v>-18</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="85"/>
+        <v>-2</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>A110-41*A118</f>
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ref="B116:I116" si="86">B110-41*B118</f>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="86"/>
+        <v>-29</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="86"/>
+        <v>-40</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="86"/>
+        <v>0.5</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="86"/>
+        <v>-20.5</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>A111+5*A118</f>
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" ref="B117:I117" si="87">B111+5*B118</f>
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="87"/>
+        <v>-1</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="87"/>
+        <v>-2</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="87"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="87"/>
+        <v>2.5</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>A112/2</f>
+        <v>0</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" ref="B118:I118" si="88">B112/2</f>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="88"/>
+        <v>-4</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="88"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="88"/>
+        <v>0.5</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>A113-5*A118</f>
+        <v>0</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" ref="B119:I119" si="89">B113-5*B118</f>
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="89"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>A116+A117</f>
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122:I122" si="90">B116+B117</f>
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="90"/>
+        <v>-30</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="90"/>
+        <v>-42</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="90"/>
+        <v>-18</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>A117*-2</f>
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123:I123" si="91">B117*-2</f>
+        <v>-2</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="91"/>
+        <v>4</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="91"/>
+        <v>-5</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>A118-A117</f>
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124:I124" si="92">B118-B117</f>
+        <v>-1</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="92"/>
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="92"/>
+        <v>-2</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="92"/>
+        <v>-2</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>A119+A117</f>
+        <v>0</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" ref="B125:I125" si="93">B119+B117</f>
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>A122-A125</f>
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ref="B128:I128" si="94">B122-B125</f>
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="94"/>
+        <v>-30</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="94"/>
+        <v>-42</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="94"/>
+        <v>-18</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+      <c r="I128" s="9">
+        <f t="shared" si="94"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>A123+2*A125</f>
+        <v>0</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" ref="B129:I129" si="95">B123+2*B125</f>
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="95"/>
+        <v>4</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="95"/>
+        <v>-5</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>A124+A125</f>
+        <v>0</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" ref="B130:I130" si="96">B124+B125</f>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="96"/>
+        <v>3</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="96"/>
+        <v>-2</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="96"/>
+        <v>-2</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>A125</f>
+        <v>0</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" ref="B131:I131" si="97">B125</f>
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>-57</v>
+      </c>
+      <c r="D135">
+        <v>-9</v>
+      </c>
+      <c r="E135">
+        <v>-24</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C136" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="D136">
+        <v>-2.5</v>
+      </c>
+      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <v>-1.5</v>
+      </c>
+      <c r="D137">
+        <v>-0.5</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>A135-10*A142</f>
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ref="B141" si="98">B135-10*B142</f>
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141" si="99">C135-10*C142</f>
+        <v>53</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ref="D141" si="100">D135-10*D142</f>
+        <v>41</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141" si="101">E135-10*E142</f>
+        <v>-204</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ref="F141" si="102">F135-10*F142</f>
+        <v>-20</v>
+      </c>
+      <c r="G141">
+        <f t="shared" ref="G141" si="103">G135-10*G142</f>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ref="H141" si="104">H135-10*H142</f>
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ref="I141" si="105">I135-10*I142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>A136*2</f>
+        <v>0</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" ref="B142:I142" si="106">B136*2</f>
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="106"/>
+        <v>-11</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="106"/>
+        <v>-5</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="106"/>
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>A137-A136</f>
+        <v>0</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" ref="B143:I143" si="107">B137-B136</f>
+        <v>0</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="107"/>
+        <v>4</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="107"/>
+        <v>-8</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="G143" s="1">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>A138-A142</f>
+        <v>0</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" ref="B144:I144" si="108">B138-B142</f>
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="108"/>
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="108"/>
+        <v>-18</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="108"/>
+        <v>-2</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>A141-53*A149</f>
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ref="B147:I147" si="109">B141-53*B149</f>
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="109"/>
+        <v>14.5</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="109"/>
+        <v>-98</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="109"/>
+        <v>-6.75</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="109"/>
+        <v>-13.25</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>A142+11*A149</f>
+        <v>0</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" ref="B148:I148" si="110">B142+11*B149</f>
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="110"/>
+        <v>0.5</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="110"/>
+        <v>-4</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="110"/>
+        <v>-0.75</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="110"/>
+        <v>2.75</v>
+      </c>
+      <c r="H148" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>A143/4</f>
+        <v>0</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" ref="B149:I149" si="111">B143/4</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" si="111"/>
+        <v>0.5</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="111"/>
+        <v>-2</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="111"/>
+        <v>-0.25</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="111"/>
+        <v>0.25</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>A144-11*A149</f>
+        <v>0</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" ref="B150:I150" si="112">B144-11*B149</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="112"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="112"/>
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="112"/>
+        <v>0.75</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="112"/>
+        <v>-2.75</v>
+      </c>
+      <c r="H150" s="1">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>6</v>
+      </c>
+      <c r="H152" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>A147-14.5/0.5*A149</f>
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ref="B153:I153" si="113">B147-14.5/0.5*B149</f>
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="113"/>
+        <v>-29</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="113"/>
+        <v>-40</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="113"/>
+        <v>0.5</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="113"/>
+        <v>-20.5</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>A148-A149</f>
+        <v>0</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" ref="B154:I154" si="114">B148-B149</f>
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="114"/>
+        <v>-1</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="114"/>
+        <v>-2</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="114"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="114"/>
+        <v>2.5</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>A149*2</f>
+        <v>0</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" ref="B155:I155" si="115">B149*2</f>
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="115"/>
+        <v>-4</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="115"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="115"/>
+        <v>0.5</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>A150+A149</f>
+        <v>0</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" ref="B156:I156" si="116">B150+B149</f>
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="116"/>
+        <v>2</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="116"/>
+        <v>0.5</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="116"/>
+        <v>-2.5</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>A153-A156</f>
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ref="B159:I159" si="117">B153-B156</f>
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="117"/>
+        <v>-30</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="117"/>
+        <v>-42</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="117"/>
+        <v>-18</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="I159" s="7">
+        <f t="shared" si="117"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>A154+A156</f>
+        <v>0</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" ref="B160:I160" si="118">B154+B156</f>
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f>A155+A156</f>
+        <v>0</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" ref="B161:I161" si="119">B155+B156</f>
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="119"/>
+        <v>3</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="119"/>
+        <v>-2</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="119"/>
+        <v>-2</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f>A156*2</f>
+        <v>0</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" ref="B162:I162" si="120">B156*2</f>
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="120"/>
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="120"/>
+        <v>4</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="120"/>
+        <v>-5</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="120"/>
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="120"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LP/hw/hw4/hw4.xlsx
+++ b/LP/hw/hw4/hw4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whylo\Desktop\MITA_First_Year\LP\hw\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF140738-37BC-4CE4-A24D-A6D3C6959A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FD6E3-7741-4B3A-BED0-1AC360BF4F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BB637A-DE6C-438E-8B52-22750066295B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="11">
   <si>
     <t>x0</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>RHS</t>
+  </si>
+  <si>
+    <t>Cycling</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,11 +131,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -143,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF35AF4-7224-485B-A509-D6F515692D14}">
-  <dimension ref="A2:W162"/>
+  <dimension ref="A2:AG180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="B125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG147" sqref="AG147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,43 +4429,43 @@
         <v>1035.1428571428569</v>
       </c>
       <c r="M78">
-        <f>M72-169*M79</f>
+        <f t="shared" ref="M78:V78" si="59">M72-169*M79</f>
         <v>1</v>
       </c>
       <c r="N78">
-        <f>N72-169*N79</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f>O72-169*O79</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f>P72-169*P79</f>
+        <f t="shared" si="59"/>
         <v>-107</v>
       </c>
       <c r="Q78">
-        <f>Q72-169*Q79</f>
+        <f t="shared" si="59"/>
         <v>-100</v>
       </c>
       <c r="R78">
-        <f>R72-169*R79</f>
+        <f t="shared" si="59"/>
         <v>303</v>
       </c>
       <c r="S78">
-        <f>S72-169*S79</f>
+        <f t="shared" si="59"/>
         <v>-507</v>
       </c>
       <c r="T78">
-        <f>T72-169*T79</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U78">
-        <f>U72-169*U79</f>
+        <f t="shared" si="59"/>
         <v>203</v>
       </c>
       <c r="V78">
-        <f>V72-169*V79</f>
+        <f t="shared" si="59"/>
         <v>772</v>
       </c>
     </row>
@@ -4462,79 +4475,79 @@
         <v>0</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" ref="B79:J79" si="59">B73/7*3</f>
+        <f t="shared" ref="B79:J79" si="60">B73/7*3</f>
         <v>0.14285714285714288</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.2857142857142857</v>
       </c>
       <c r="G79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.2857142857142857</v>
       </c>
       <c r="J79">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.28571428571428548</v>
       </c>
       <c r="M79">
-        <f>M73*3</f>
+        <f t="shared" ref="M79:V79" si="61">M73*3</f>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f>N73*3</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="O79" s="1">
-        <f>O73*3</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f>P73*3</f>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="Q79">
-        <f>Q73*3</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f>R73*3</f>
+        <f t="shared" si="61"/>
         <v>-2</v>
       </c>
       <c r="S79">
-        <f>S73*3</f>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="T79" s="1">
-        <f>T73*3</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U79">
-        <f>U73*3</f>
+        <f t="shared" si="61"/>
         <v>-2</v>
       </c>
       <c r="V79">
-        <f>V73*3</f>
+        <f t="shared" si="61"/>
         <v>1.9999999999999982</v>
       </c>
     </row>
@@ -4544,165 +4557,165 @@
         <v>0</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" ref="B80:J80" si="60">B74-1/3*B79</f>
+        <f t="shared" ref="B80:J80" si="62">B74-1/3*B79</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>-1</v>
       </c>
       <c r="F80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>10.571428571428573</v>
       </c>
       <c r="M80">
-        <f>M74-4/3*M79</f>
+        <f t="shared" ref="M80:V80" si="63">M74-4/3*M79</f>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f>N74-4/3*N79</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O80" s="1">
-        <f>O74-4/3*O79</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f>P74-4/3*P79</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="Q80">
-        <f>Q74-4/3*Q79</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="R80" s="2">
-        <f>R74-4/3*R79</f>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="S80">
-        <f>S74-4/3*S79</f>
+        <f t="shared" si="63"/>
         <v>-4</v>
       </c>
       <c r="T80" s="1">
-        <f>T74-4/3*T79</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="U80">
-        <f>U74-4/3*U79</f>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="V80">
-        <f>V74-4/3*V79</f>
+        <f t="shared" si="63"/>
         <v>8.0000000000000036</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>A75-1/3*A79</f>
         <v>0</v>
       </c>
       <c r="B81" s="5">
-        <f t="shared" ref="B81:J81" si="61">B75-1/3*B79</f>
+        <f t="shared" ref="B81:J81" si="64">B75-1/3*B79</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J81">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>4.5714285714285721</v>
       </c>
       <c r="M81">
-        <f>M75-M73</f>
+        <f t="shared" ref="M81:V81" si="65">M75-M73</f>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f>N75-N73</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O81" s="1">
-        <f>O75-O73</f>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="P81">
-        <f>P75-P73</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f>Q75-Q73</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R81">
-        <f>R75-R73</f>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S81">
-        <f>S75-S73</f>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T81" s="1">
-        <f>T75-T73</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U81">
-        <f>U75-U73</f>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="V81">
-        <f>V75-V73</f>
+        <f t="shared" si="65"/>
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -4764,45 +4777,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>A78-(131*7+4)/7*A85</f>
         <v>1</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:J84" si="62">B78-(131*7+4)/7*B85</f>
+        <f t="shared" ref="B84:J84" si="66">B78-(131*7+4)/7*B85</f>
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>-921.00000000000011</v>
       </c>
       <c r="E84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>-100</v>
       </c>
       <c r="F84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>303</v>
       </c>
       <c r="G84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>-507.00000000000006</v>
       </c>
       <c r="H84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>203</v>
       </c>
       <c r="J84">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>772</v>
       </c>
       <c r="M84">
@@ -4810,81 +4823,81 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:V84" si="63">N78-303*N86</f>
+        <f t="shared" ref="N84:V84" si="67">N78-303*N86</f>
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-6</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="R84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-103</v>
       </c>
       <c r="T84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-101</v>
       </c>
       <c r="U84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-100</v>
       </c>
       <c r="V84">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-36.000000000000341</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>A79*7</f>
         <v>0</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ref="B85:J85" si="64">B79*7</f>
+        <f t="shared" ref="B85:J85" si="68">B79*7</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>7</v>
       </c>
       <c r="E85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-2</v>
       </c>
       <c r="G85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>1.9999999999999982</v>
       </c>
       <c r="M85">
@@ -4892,81 +4905,81 @@
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" ref="N85:V85" si="65">N79+2*N86</f>
+        <f t="shared" ref="N85:V85" si="69">N79+2*N86</f>
         <v>1</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.33333333333333348</v>
       </c>
       <c r="T85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="U85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="V85">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>7.3333333333333339</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>A80-9*A79</f>
         <v>0</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ref="B86:J86" si="66">B80-9*B79</f>
+        <f t="shared" ref="B86:J86" si="70">B80-9*B79</f>
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-9</v>
       </c>
       <c r="E86">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="G86">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-3.9999999999999996</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>2.9999999999999996</v>
       </c>
       <c r="J86">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>8.0000000000000036</v>
       </c>
       <c r="M86">
@@ -4974,81 +4987,81 @@
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" ref="N86:V86" si="67">N80/3</f>
+        <f t="shared" ref="N86:V86" si="71">N80/3</f>
         <v>0</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="T86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="V86">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2.6666666666666679</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>A81-2*A79</f>
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87:J87" si="68">B81-2*B79</f>
+        <f t="shared" ref="B87:J87" si="72">B81-2*B79</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>-2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="M87">
@@ -5056,43 +5069,43 @@
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87:V87" si="69">N81-N86</f>
+        <f t="shared" ref="N87:V87" si="73">N81-N86</f>
         <v>0</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="P87">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="S87">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="T87">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="U87">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="V87">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5154,45 +5167,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>A84-303*A92</f>
         <v>1</v>
       </c>
       <c r="B90">
-        <f t="shared" ref="B90:J90" si="70">B84-303*B92</f>
+        <f t="shared" ref="B90:J90" si="74">B84-303*B92</f>
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>-12.000000000000114</v>
       </c>
       <c r="E90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="F90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>-103.00000000000006</v>
       </c>
       <c r="H90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>-101</v>
       </c>
       <c r="I90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>-99.999999999999943</v>
       </c>
       <c r="J90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>-36.000000000000341</v>
       </c>
       <c r="M90">
@@ -5200,81 +5213,81 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <f t="shared" ref="N90:V90" si="71">N84-N93</f>
+        <f t="shared" ref="N90:V90" si="75">N84-N93</f>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-3</v>
       </c>
       <c r="P90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-7</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="S90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-104</v>
       </c>
       <c r="T90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-100</v>
       </c>
       <c r="U90">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-100</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>-40.000000000000341</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>A85+2*A92</f>
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" ref="B91:J91" si="72">B85+2*B92</f>
+        <f t="shared" ref="B91:J91" si="76">B85+2*B92</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0.33333333333333348</v>
       </c>
       <c r="H91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>7.3333333333333339</v>
       </c>
       <c r="M91">
@@ -5282,81 +5295,81 @@
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" ref="N91:V91" si="73">N85+2*N87</f>
+        <f t="shared" ref="N91:V91" si="77">N85+2*N87</f>
         <v>1</v>
       </c>
       <c r="O91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="P91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="S91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="T91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="U91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>A86/3</f>
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92:J92" si="74">B86/3</f>
+        <f t="shared" ref="B92:J92" si="78">B86/3</f>
         <v>0</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>-3</v>
       </c>
       <c r="E92">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G92">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="H92">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J92">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>2.6666666666666679</v>
       </c>
       <c r="M92">
@@ -5364,81 +5377,81 @@
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" ref="N92:V92" si="75">N86+N87</f>
+        <f t="shared" ref="N92:V92" si="79">N86+N87</f>
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="P92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="S92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="T92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="U92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="V92">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>A87-A92</f>
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93:J93" si="76">B87-B92</f>
+        <f t="shared" ref="B93:J93" si="80">B87-B92</f>
         <v>0</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H93">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>1.333333333333333</v>
       </c>
       <c r="M93">
@@ -5446,43 +5459,99 @@
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" ref="N93:V93" si="77">N87*3</f>
+        <f t="shared" ref="N93:V93" si="81">N87*3</f>
         <v>0</v>
       </c>
       <c r="O93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="P93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="T93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>-1</v>
       </c>
       <c r="U93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="V93">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>3.9999999999999991</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y93" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>53</v>
+      </c>
+      <c r="AB94">
+        <v>41</v>
+      </c>
+      <c r="AC94">
+        <v>-204</v>
+      </c>
+      <c r="AD94">
+        <v>-20</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5513,176 +5582,322 @@
       <c r="J95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA95">
+        <v>-11</v>
+      </c>
+      <c r="AB95">
+        <v>-5</v>
+      </c>
+      <c r="AC95">
+        <v>18</v>
+      </c>
+      <c r="AD95">
+        <v>2</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>A90-A99</f>
         <v>1</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96:J96" si="78">B90-B99</f>
+        <f t="shared" ref="B96:J96" si="82">B90-B99</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-3</v>
       </c>
       <c r="D96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-15.000000000000114</v>
       </c>
       <c r="E96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-104.00000000000006</v>
       </c>
       <c r="H96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-100</v>
       </c>
       <c r="I96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-99.999999999999943</v>
       </c>
       <c r="J96" s="7">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>-40.000000000000341</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB96">
+        <v>2</v>
+      </c>
+      <c r="AC96">
+        <v>-8</v>
+      </c>
+      <c r="AD96">
+        <v>-1</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>A91+2*A93</f>
         <v>0</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" ref="B97:J97" si="79">B91+2*B93</f>
+        <f t="shared" ref="B97:J97" si="83">B91+2*B93</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="C97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>3</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="H97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="I97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>11</v>
+      </c>
+      <c r="AB97">
+        <v>5</v>
+      </c>
+      <c r="AC97">
+        <v>-18</v>
+      </c>
+      <c r="AD97">
+        <v>-2</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>A92+A93</f>
         <v>0</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ref="B98:J98" si="80">B92+B93</f>
+        <f t="shared" ref="B98:J98" si="84">B92+B93</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-2</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="H98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="I98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J98">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>4.0000000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>A93*3</f>
         <v>0</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" ref="B99:J99" si="81">B93*3</f>
+        <f t="shared" ref="B99:J99" si="85">B93*3</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="D99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v>3.9999999999999991</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y99" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <f>Y94-53*Y102</f>
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" ref="Z100:AG100" si="86">Z94-53*Z102</f>
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="86"/>
+        <v>14.5</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="86"/>
+        <v>-98</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="86"/>
+        <v>-6.75</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="86"/>
+        <v>-13.25</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -5699,8 +5914,82 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <f>Y95+11*Y102</f>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="1">
+        <f t="shared" ref="Z101" si="87">Z95+11*Z102</f>
+        <v>1</v>
+      </c>
+      <c r="AA101" s="1">
+        <f t="shared" ref="AA101" si="88">AA95+11*AA102</f>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="2">
+        <f t="shared" ref="AB101" si="89">AB95+11*AB102</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" ref="AC101" si="90">AC95+11*AC102</f>
+        <v>-4</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" ref="AD101" si="91">AD95+11*AD102</f>
+        <v>-0.75</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" ref="AE101" si="92">AE95+11*AE102</f>
+        <v>2.75</v>
+      </c>
+      <c r="AF101" s="1">
+        <f t="shared" ref="AF101" si="93">AF95+11*AF102</f>
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" ref="AG101" si="94">AG95+11*AG102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <f>Y96/4</f>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="1">
+        <f t="shared" ref="Z102:AG102" si="95">Z96/4</f>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="1">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="95"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="95"/>
+        <v>-2</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="95"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="95"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF102" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5728,8 +6017,44 @@
       <c r="I103" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <f>Y97-11*Y102</f>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="1">
+        <f t="shared" ref="Z103" si="96">Z97-11*Z102</f>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="1">
+        <f t="shared" ref="AA103" si="97">AA97-11*AA102</f>
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" ref="AB103" si="98">AB97-11*AB102</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" ref="AC103" si="99">AC97-11*AC102</f>
+        <v>4</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" ref="AD103" si="100">AD97-11*AD102</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" ref="AE103" si="101">AE97-11*AE102</f>
+        <v>-2.75</v>
+      </c>
+      <c r="AF103" s="1">
+        <f t="shared" ref="AF103" si="102">AF97-11*AF102</f>
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" ref="AG103" si="103">AG97-11*AG102</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -5758,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5786,8 +6111,35 @@
       <c r="I105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y105" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5815,8 +6167,44 @@
       <c r="I106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <f>Y100-14.5*Y107</f>
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" ref="Z106" si="104">Z100-14.5*Z107</f>
+        <v>-29</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" ref="AA106" si="105">AA100-14.5*AA107</f>
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" ref="AB106" si="106">AB100-14.5*AB107</f>
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" ref="AC106" si="107">AC100-14.5*AC107</f>
+        <v>18</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" ref="AD106" si="108">AD100-14.5*AD107</f>
+        <v>15</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" ref="AE106" si="109">AE100-14.5*AE107</f>
+        <v>-93</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" ref="AF106" si="110">AF100-14.5*AF107</f>
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" ref="AG106" si="111">AG100-14.5*AG107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5844,8 +6232,82 @@
       <c r="I107">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <f>Y101*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" ref="Z107:AG107" si="112">Z101*2</f>
+        <v>2</v>
+      </c>
+      <c r="AA107" s="1">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="1">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="112"/>
+        <v>-8</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="112"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="112"/>
+        <v>5.5</v>
+      </c>
+      <c r="AF107" s="1">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <f>Y102-Y101</f>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" ref="Z108:AG108" si="113">Z102-Z101</f>
+        <v>-1</v>
+      </c>
+      <c r="AA108" s="1">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="AB108" s="1">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AC108" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" si="113"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="113"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AF108" s="1">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -5873,160 +6335,468 @@
       <c r="I109" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>2</v>
+      </c>
+      <c r="P109" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s">
+        <v>5</v>
+      </c>
+      <c r="S109" t="s">
+        <v>6</v>
+      </c>
+      <c r="T109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U109" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y109">
+        <f>Y103+Y101</f>
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" ref="Z109:AG109" si="114">Z103+Z101</f>
+        <v>1</v>
+      </c>
+      <c r="AA109" s="1">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="1">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="1">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="AG109">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>A104-10*A111</f>
         <v>1</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:I110" si="82">B104-10*B111</f>
+        <f t="shared" ref="B110:I110" si="115">B104-10*B111</f>
         <v>0</v>
       </c>
       <c r="C110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>53</v>
       </c>
       <c r="D110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>41</v>
       </c>
       <c r="E110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>-204</v>
       </c>
       <c r="F110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>-20</v>
       </c>
       <c r="G110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="I110">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>53</v>
+      </c>
+      <c r="P110">
+        <v>41</v>
+      </c>
+      <c r="Q110">
+        <v>-204</v>
+      </c>
+      <c r="R110">
+        <v>-20</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>A105*2</f>
         <v>0</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" ref="B111:I111" si="83">B105*2</f>
+        <f t="shared" ref="B111:I111" si="116">B105*2</f>
         <v>1</v>
       </c>
       <c r="C111">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>-11</v>
       </c>
       <c r="D111">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>-5</v>
       </c>
       <c r="E111">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>18</v>
       </c>
       <c r="F111">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>2</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="I111">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>-11</v>
+      </c>
+      <c r="P111">
+        <v>-5</v>
+      </c>
+      <c r="Q111">
+        <v>18</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>A106-A105</f>
         <v>0</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" ref="B112:I112" si="84">B106-B105</f>
+        <f t="shared" ref="B112:I112" si="117">B106-B105</f>
         <v>0</v>
       </c>
       <c r="C112">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>4</v>
       </c>
       <c r="D112" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>2</v>
       </c>
       <c r="E112">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>-8</v>
       </c>
       <c r="F112">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>-1</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="I112">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>4</v>
+      </c>
+      <c r="P112">
+        <v>2</v>
+      </c>
+      <c r="Q112">
+        <v>-8</v>
+      </c>
+      <c r="R112">
+        <v>-1</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <f>Y106-18*Y114</f>
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" ref="Z112:AG112" si="118">Z106-18*Z114</f>
+        <v>-20</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="118"/>
+        <v>-9</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <f t="shared" si="118"/>
+        <v>10.5</v>
+      </c>
+      <c r="AE112">
+        <f t="shared" si="118"/>
+        <v>-70.5</v>
+      </c>
+      <c r="AF112">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>A107-A111</f>
         <v>0</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" ref="B113:I113" si="85">B107-B111</f>
+        <f t="shared" ref="B113:I113" si="119">B107-B111</f>
         <v>0</v>
       </c>
       <c r="C113">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>11</v>
       </c>
       <c r="D113">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
       <c r="E113">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>-18</v>
       </c>
       <c r="F113">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>-2</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="I113">
-        <f t="shared" si="85"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>11</v>
+      </c>
+      <c r="P113">
+        <v>5</v>
+      </c>
+      <c r="Q113">
+        <v>-18</v>
+      </c>
+      <c r="R113">
+        <v>-2</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="Y113">
+        <f>Y107+8*Y114</f>
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" ref="Z113" si="120">Z107+8*Z114</f>
+        <v>-2</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" ref="AA113" si="121">AA107+8*AA114</f>
+        <v>4</v>
+      </c>
+      <c r="AB113" s="1">
+        <f t="shared" ref="AB113" si="122">AB107+8*AB114</f>
+        <v>1</v>
+      </c>
+      <c r="AC113" s="1">
+        <f t="shared" ref="AC113" si="123">AC107+8*AC114</f>
+        <v>0</v>
+      </c>
+      <c r="AD113" s="2">
+        <f t="shared" ref="AD113" si="124">AD107+8*AD114</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE113">
+        <f t="shared" ref="AE113" si="125">AE107+8*AE114</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AF113" s="1">
+        <f t="shared" ref="AF113" si="126">AF107+8*AF114</f>
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <f t="shared" ref="AG113" si="127">AG107+8*AG114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <f>Y108/2</f>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" ref="Z114:AG114" si="128">Z108/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="128"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB114" s="1">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AC114" s="1">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="AD114">
+        <f t="shared" si="128"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE114">
+        <f t="shared" si="128"/>
+        <v>-1.25</v>
+      </c>
+      <c r="AF114" s="1">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6054,160 +6824,504 @@
       <c r="I115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>2</v>
+      </c>
+      <c r="P115" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>4</v>
+      </c>
+      <c r="R115" t="s">
+        <v>5</v>
+      </c>
+      <c r="S115" t="s">
+        <v>6</v>
+      </c>
+      <c r="T115" t="s">
+        <v>8</v>
+      </c>
+      <c r="U115" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y115">
+        <f>Y109</f>
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" ref="Z115:AG115" si="129">Z109</f>
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AB115" s="1">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AC115" s="1">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AF115" s="1">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+      <c r="AG115">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>A110-41*A118</f>
         <v>1</v>
       </c>
       <c r="B116">
-        <f t="shared" ref="B116:I116" si="86">B110-41*B118</f>
+        <f t="shared" ref="B116:I116" si="130">B110-41*B118</f>
         <v>0</v>
       </c>
       <c r="C116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>-29</v>
       </c>
       <c r="D116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>-40</v>
       </c>
       <c r="F116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>0.5</v>
       </c>
       <c r="G116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>-20.5</v>
       </c>
       <c r="H116">
-        <f t="shared" si="86"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <f>M110-53*M118</f>
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <f t="shared" ref="N116:U116" si="131">N110-53*N118</f>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="131"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="131"/>
+        <v>-98</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="131"/>
+        <v>-6.75</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="131"/>
+        <v>-13.25</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>A111+5*A118</f>
         <v>0</v>
       </c>
       <c r="B117" s="1">
-        <f t="shared" ref="B117:I117" si="87">B111+5*B118</f>
+        <f t="shared" ref="B117:I117" si="132">B111+5*B118</f>
         <v>1</v>
       </c>
       <c r="C117">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>-1</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>-2</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>-0.5</v>
       </c>
       <c r="G117">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>2.5</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="I117">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <f>M111+11*M118</f>
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <f t="shared" ref="N117:U117" si="133">N111+11*N118</f>
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="2">
+        <f t="shared" si="133"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="133"/>
+        <v>-4</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="133"/>
+        <v>-0.75</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="133"/>
+        <v>2.75</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>A112/2</f>
         <v>0</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" ref="B118:I118" si="88">B112/2</f>
+        <f t="shared" ref="B118:I118" si="134">B112/2</f>
         <v>0</v>
       </c>
       <c r="C118">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>1</v>
       </c>
       <c r="E118">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>-4</v>
       </c>
       <c r="F118">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>-0.5</v>
       </c>
       <c r="G118">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>0.5</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="I118">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <f>M112/4</f>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" ref="N118:U118" si="135">N112/4</f>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="135"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="135"/>
+        <v>-2</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="135"/>
+        <v>-0.25</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="135"/>
+        <v>0.25</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <f>Y112-10.5*Y119</f>
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" ref="Z118:AG118" si="136">Z112-10.5*Z119</f>
+        <v>22</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="136"/>
+        <v>-93</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="136"/>
+        <v>-21</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <f t="shared" si="136"/>
+        <v>24</v>
+      </c>
+      <c r="AF118">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>A113-5*A118</f>
         <v>0</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" ref="B119:I119" si="89">B113-5*B118</f>
+        <f t="shared" ref="B119:I119" si="137">B113-5*B118</f>
         <v>0</v>
       </c>
       <c r="C119">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>2</v>
       </c>
       <c r="F119">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>0.5</v>
       </c>
       <c r="G119">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>-2.5</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="89"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <f>M113-11*M118</f>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" ref="N119:U119" si="138">N113-11*N118</f>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="138"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="138"/>
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="138"/>
+        <v>0.75</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="138"/>
+        <v>-2.75</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="Y119">
+        <f>Y113*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" ref="Z119:AF119" si="139">Z113*2</f>
+        <v>-4</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="139"/>
+        <v>8</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
+      <c r="AC119" s="1">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="AD119" s="1">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <f t="shared" si="139"/>
+        <v>-9</v>
+      </c>
+      <c r="AF119" s="1">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <f>AG113*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <f t="shared" ref="Y120:AG120" si="140">Y114-Y113/2</f>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="3">
+        <f t="shared" si="140"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="140"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="140"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AC120" s="1">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="AD120" s="1">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="AF120" s="1">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6235,160 +7349,504 @@
       <c r="I121" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>2</v>
+      </c>
+      <c r="P121" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>4</v>
+      </c>
+      <c r="R121" t="s">
+        <v>5</v>
+      </c>
+      <c r="S121" t="s">
+        <v>6</v>
+      </c>
+      <c r="T121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U121" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <f>Y115</f>
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" ref="Z121:AG121" si="141">Z115</f>
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AC121" s="1">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AD121" s="1">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AF121" s="1">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="AG121">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>A116+A117</f>
         <v>1</v>
       </c>
       <c r="B122">
-        <f t="shared" ref="B122:I122" si="90">B116+B117</f>
+        <f t="shared" ref="B122:I122" si="142">B116+B117</f>
         <v>1</v>
       </c>
       <c r="C122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>-30</v>
       </c>
       <c r="D122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>-42</v>
       </c>
       <c r="F122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>-18</v>
       </c>
       <c r="H122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="I122">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <f>M116-14.5*M123</f>
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <f t="shared" ref="N122:U122" si="143">N116-14.5*N123</f>
+        <v>-29</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="143"/>
+        <v>18</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="143"/>
+        <v>15</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="143"/>
+        <v>-93</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>A117*-2</f>
         <v>0</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123:I123" si="91">B117*-2</f>
+        <f t="shared" ref="B123:I123" si="144">B117*-2</f>
         <v>-2</v>
       </c>
       <c r="C123">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>4</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="G123">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>-5</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <f>M117*2</f>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" ref="N123:U123" si="145">N117*2</f>
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="145"/>
+        <v>-8</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="145"/>
+        <v>-1.5</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="145"/>
+        <v>5.5</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>A118-A117</f>
         <v>0</v>
       </c>
       <c r="B124">
-        <f t="shared" ref="B124:I124" si="92">B118-B117</f>
+        <f t="shared" ref="B124:I124" si="146">B118-B117</f>
         <v>-1</v>
       </c>
       <c r="C124">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="E124">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>-2</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>-2</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <f>M118-M117</f>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" ref="N124:U124" si="147">N118-N117</f>
+        <v>-1</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="147"/>
+        <v>0.5</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="147"/>
+        <v>-2.5</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <f>Y118-29*Y120</f>
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" ref="Z124:AG124" si="148">Z118-29*Z120</f>
+        <v>7.5</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="148"/>
+        <v>-49.5</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="148"/>
+        <v>-6.5</v>
+      </c>
+      <c r="AC124">
+        <f t="shared" si="148"/>
+        <v>-29</v>
+      </c>
+      <c r="AD124">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="148"/>
+        <v>-5</v>
+      </c>
+      <c r="AF124">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>A119+A117</f>
         <v>0</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" ref="B125:I125" si="93">B119+B117</f>
+        <f t="shared" ref="B125:I125" si="149">B119+B117</f>
         <v>1</v>
       </c>
       <c r="C125">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="149"/>
         <v>1</v>
       </c>
       <c r="I125">
-        <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <f>M119+M117</f>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" ref="N125:U125" si="150">N119+N117</f>
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="Y125">
+        <f>Y119+9*Y120</f>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="2">
+        <f t="shared" ref="Z125:AG125" si="151">Z119+9*Z120</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="151"/>
+        <v>-5.5</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="151"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AC125">
+        <f t="shared" si="151"/>
+        <v>9</v>
+      </c>
+      <c r="AD125" s="1">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+      <c r="AE125" s="1">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="AF125" s="1">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <f>Y120</f>
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" ref="Z126:AG126" si="152">Z120</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="152"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="152"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AC126">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="AD126" s="1">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AE126" s="1">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="AF126" s="1">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6416,160 +7874,466 @@
       <c r="I127" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>2</v>
+      </c>
+      <c r="P127" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>4</v>
+      </c>
+      <c r="R127" t="s">
+        <v>5</v>
+      </c>
+      <c r="S127" t="s">
+        <v>6</v>
+      </c>
+      <c r="T127" t="s">
+        <v>8</v>
+      </c>
+      <c r="U127" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <f>Y121</f>
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" ref="Z127:AG127" si="153">Z121</f>
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="1">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AE127" s="1">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AF127" s="1">
+        <f t="shared" si="153"/>
+        <v>1</v>
+      </c>
+      <c r="AG127">
+        <f t="shared" si="153"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>A122-A125</f>
         <v>1</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128:I128" si="94">B122-B125</f>
+        <f t="shared" ref="B128:I128" si="154">B122-B125</f>
         <v>0</v>
       </c>
       <c r="C128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>-30</v>
       </c>
       <c r="D128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>-42</v>
       </c>
       <c r="F128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>-18</v>
       </c>
       <c r="H128">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>-1</v>
       </c>
       <c r="I128" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="154"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <f>M122-18*M130</f>
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <f t="shared" ref="N128:U128" si="155">N122-18*N130</f>
+        <v>-20</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="155"/>
+        <v>-9</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="155"/>
+        <v>10.5</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="155"/>
+        <v>-70.5</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>A123+2*A125</f>
         <v>0</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" ref="B129:I129" si="95">B123+2*B125</f>
+        <f t="shared" ref="B129:I129" si="156">B123+2*B125</f>
         <v>0</v>
       </c>
       <c r="C129">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>2</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>4</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>1</v>
       </c>
       <c r="G129">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>-5</v>
       </c>
       <c r="H129">
-        <f t="shared" si="95"/>
+        <f t="shared" si="156"/>
         <v>2</v>
       </c>
       <c r="I129">
-        <f t="shared" si="95"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <f>M123+8*M130</f>
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <f t="shared" ref="N129:U129" si="157">N123+8*N130</f>
+        <v>-2</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="157"/>
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="157"/>
+        <v>0.5</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="157"/>
+        <v>-4.5</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF129" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>A124+A125</f>
         <v>0</v>
       </c>
       <c r="B130" s="1">
-        <f t="shared" ref="B130:I130" si="96">B124+B125</f>
+        <f t="shared" ref="B130:I130" si="158">B124+B125</f>
         <v>0</v>
       </c>
       <c r="C130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>3</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>1</v>
       </c>
       <c r="E130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>-2</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>-2</v>
       </c>
       <c r="H130">
-        <f t="shared" si="96"/>
+        <f t="shared" si="158"/>
         <v>1</v>
       </c>
       <c r="I130">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <f>M124/2</f>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" ref="N130:U130" si="159">N124/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="159"/>
+        <v>0.5</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="159"/>
+        <v>0.25</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="159"/>
+        <v>-1.25</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <f>Y124-Y125*15</f>
+        <v>1</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" ref="Z130:AG130" si="160">Z124-Z125*15</f>
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="160"/>
+        <v>33</v>
+      </c>
+      <c r="AB130">
+        <f t="shared" si="160"/>
+        <v>31</v>
+      </c>
+      <c r="AC130">
+        <f t="shared" si="160"/>
+        <v>-164</v>
+      </c>
+      <c r="AD130">
+        <f t="shared" si="160"/>
+        <v>-15</v>
+      </c>
+      <c r="AE130">
+        <f t="shared" si="160"/>
+        <v>-5</v>
+      </c>
+      <c r="AF130">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>A125</f>
         <v>0</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" ref="B131:I131" si="97">B125</f>
+        <f t="shared" ref="B131:I131" si="161">B125</f>
         <v>1</v>
       </c>
       <c r="C131">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" si="97"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="I131">
-        <f t="shared" si="97"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="161"/>
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <f>M125</f>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:U131" si="162">N125</f>
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="162"/>
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="162"/>
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <f>Y125*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="1">
+        <f t="shared" ref="Z131:AG131" si="163">Z125*2</f>
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" si="163"/>
+        <v>-11</v>
+      </c>
+      <c r="AB131">
+        <f t="shared" si="163"/>
+        <v>-5</v>
+      </c>
+      <c r="AC131">
+        <f t="shared" si="163"/>
+        <v>18</v>
+      </c>
+      <c r="AD131">
+        <f t="shared" si="163"/>
+        <v>2</v>
+      </c>
+      <c r="AE131" s="1">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="AF131" s="1">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -6586,8 +8350,82 @@
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <f>Y126-Y125</f>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="1">
+        <f t="shared" ref="Z132:AG132" si="164">Z126-Z125</f>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="2">
+        <f t="shared" si="164"/>
+        <v>4</v>
+      </c>
+      <c r="AB132">
+        <f t="shared" si="164"/>
+        <v>2</v>
+      </c>
+      <c r="AC132">
+        <f t="shared" si="164"/>
+        <v>-8</v>
+      </c>
+      <c r="AD132">
+        <f t="shared" si="164"/>
+        <v>-1</v>
+      </c>
+      <c r="AE132" s="1">
+        <f t="shared" si="164"/>
+        <v>1</v>
+      </c>
+      <c r="AF132" s="1">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <f>Y127-Y131</f>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="1">
+        <f t="shared" ref="Z133:AG133" si="165">Z127-Z131</f>
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="165"/>
+        <v>11</v>
+      </c>
+      <c r="AB133">
+        <f t="shared" si="165"/>
+        <v>5</v>
+      </c>
+      <c r="AC133">
+        <f t="shared" si="165"/>
+        <v>-18</v>
+      </c>
+      <c r="AD133">
+        <f t="shared" si="165"/>
+        <v>-2</v>
+      </c>
+      <c r="AE133" s="1">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AF133" s="1">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="AG133">
+        <f t="shared" si="165"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6616,7 +8454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -6644,8 +8482,35 @@
       <c r="I135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y135" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF135" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -6673,8 +8538,44 @@
       <c r="I136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <f>Y130-33*Y138</f>
+        <v>1</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" ref="Z136:AG136" si="166">Z130-33*Z138</f>
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <f t="shared" si="166"/>
+        <v>14.5</v>
+      </c>
+      <c r="AC136">
+        <f t="shared" si="166"/>
+        <v>-98</v>
+      </c>
+      <c r="AD136">
+        <f t="shared" si="166"/>
+        <v>-6.75</v>
+      </c>
+      <c r="AE136">
+        <f t="shared" si="166"/>
+        <v>-13.25</v>
+      </c>
+      <c r="AF136">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -6702,8 +8603,44 @@
       <c r="I137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <f>Y131+Y138*11</f>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="1">
+        <f t="shared" ref="Z137:AG137" si="167">Z131+Z138*11</f>
+        <v>1</v>
+      </c>
+      <c r="AA137" s="1">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="AB137" s="2">
+        <f t="shared" si="167"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC137">
+        <f t="shared" si="167"/>
+        <v>-4</v>
+      </c>
+      <c r="AD137">
+        <f t="shared" si="167"/>
+        <v>-0.75</v>
+      </c>
+      <c r="AE137">
+        <f t="shared" si="167"/>
+        <v>2.75</v>
+      </c>
+      <c r="AF137" s="1">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -6731,8 +8668,82 @@
       <c r="I138">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <f>Y132/4</f>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="1">
+        <f t="shared" ref="Z138:AG138" si="168">Z132/4</f>
+        <v>0</v>
+      </c>
+      <c r="AA138" s="1">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="AB138">
+        <f t="shared" si="168"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC138">
+        <f t="shared" si="168"/>
+        <v>-2</v>
+      </c>
+      <c r="AD138">
+        <f t="shared" si="168"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AE138">
+        <f t="shared" si="168"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF138" s="1">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <f>Y133-11*Y138</f>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="1">
+        <f t="shared" ref="Z139:AG139" si="169">Z133-11*Z138</f>
+        <v>0</v>
+      </c>
+      <c r="AA139" s="1">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <f t="shared" si="169"/>
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <f t="shared" si="169"/>
+        <v>4</v>
+      </c>
+      <c r="AD139">
+        <f t="shared" si="169"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE139">
+        <f t="shared" si="169"/>
+        <v>-2.75</v>
+      </c>
+      <c r="AF139" s="1">
+        <f t="shared" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="AG139">
+        <f t="shared" si="169"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -6761,159 +8772,332 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>A135-10*A142</f>
         <v>1</v>
       </c>
       <c r="B141">
-        <f t="shared" ref="B141" si="98">B135-10*B142</f>
+        <f t="shared" ref="B141" si="170">B135-10*B142</f>
         <v>0</v>
       </c>
       <c r="C141">
-        <f t="shared" ref="C141" si="99">C135-10*C142</f>
+        <f t="shared" ref="C141" si="171">C135-10*C142</f>
         <v>53</v>
       </c>
       <c r="D141">
-        <f t="shared" ref="D141" si="100">D135-10*D142</f>
+        <f t="shared" ref="D141" si="172">D135-10*D142</f>
         <v>41</v>
       </c>
       <c r="E141">
-        <f t="shared" ref="E141" si="101">E135-10*E142</f>
+        <f t="shared" ref="E141" si="173">E135-10*E142</f>
         <v>-204</v>
       </c>
       <c r="F141">
-        <f t="shared" ref="F141" si="102">F135-10*F142</f>
+        <f t="shared" ref="F141" si="174">F135-10*F142</f>
         <v>-20</v>
       </c>
       <c r="G141">
-        <f t="shared" ref="G141" si="103">G135-10*G142</f>
+        <f t="shared" ref="G141" si="175">G135-10*G142</f>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" ref="H141" si="104">H135-10*H142</f>
+        <f t="shared" ref="H141" si="176">H135-10*H142</f>
         <v>0</v>
       </c>
       <c r="I141">
-        <f t="shared" ref="I141" si="105">I135-10*I142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I141" si="177">I135-10*I142</f>
+        <v>0</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>A136*2</f>
         <v>0</v>
       </c>
       <c r="B142" s="1">
-        <f t="shared" ref="B142:I142" si="106">B136*2</f>
+        <f t="shared" ref="B142:I142" si="178">B136*2</f>
         <v>1</v>
       </c>
       <c r="C142">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>-11</v>
       </c>
       <c r="D142">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>-5</v>
       </c>
       <c r="E142">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>18</v>
       </c>
       <c r="F142">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>2</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="I142">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <f>Y136-29*Y137</f>
+        <v>1</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" ref="Z142:AG142" si="179">Z136-29*Z137</f>
+        <v>-29</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <f t="shared" si="179"/>
+        <v>18</v>
+      </c>
+      <c r="AD142">
+        <f t="shared" si="179"/>
+        <v>15</v>
+      </c>
+      <c r="AE142">
+        <f t="shared" si="179"/>
+        <v>-93</v>
+      </c>
+      <c r="AF142">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>A137-A136</f>
         <v>0</v>
       </c>
       <c r="B143" s="1">
-        <f t="shared" ref="B143:I143" si="107">B137-B136</f>
+        <f t="shared" ref="B143:I143" si="180">B137-B136</f>
         <v>0</v>
       </c>
       <c r="C143" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>4</v>
       </c>
       <c r="D143" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>2</v>
       </c>
       <c r="E143">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>-8</v>
       </c>
       <c r="F143">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>-1</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>1</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I143">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <f>Y137*2</f>
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" ref="Z143:AG143" si="181">Z137*2</f>
+        <v>2</v>
+      </c>
+      <c r="AA143" s="1">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="1">
+        <f t="shared" si="181"/>
+        <v>1</v>
+      </c>
+      <c r="AC143">
+        <f t="shared" si="181"/>
+        <v>-8</v>
+      </c>
+      <c r="AD143">
+        <f t="shared" si="181"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AE143">
+        <f t="shared" si="181"/>
+        <v>5.5</v>
+      </c>
+      <c r="AF143" s="1">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>A138-A142</f>
         <v>0</v>
       </c>
       <c r="B144" s="1">
-        <f t="shared" ref="B144:I144" si="108">B138-B142</f>
+        <f t="shared" ref="B144:I144" si="182">B138-B142</f>
         <v>0</v>
       </c>
       <c r="C144">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>11</v>
       </c>
       <c r="D144">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>5</v>
       </c>
       <c r="E144">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>-18</v>
       </c>
       <c r="F144">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>-2</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" si="182"/>
         <v>1</v>
       </c>
       <c r="I144">
-        <f t="shared" si="108"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="182"/>
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <f>Y138-Y137</f>
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" ref="Z144:AG144" si="183">Z138-Z137</f>
+        <v>-1</v>
+      </c>
+      <c r="AA144" s="1">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+      <c r="AB144" s="1">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="AC144" s="10">
+        <f t="shared" si="183"/>
+        <v>2</v>
+      </c>
+      <c r="AD144">
+        <f t="shared" si="183"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE144">
+        <f t="shared" si="183"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AF144" s="1">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <f>Y139+Y137</f>
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" ref="Z145:AG145" si="184">Z139+Z137</f>
+        <v>1</v>
+      </c>
+      <c r="AA145" s="1">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="AB145" s="1">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <f>AC139+AC137</f>
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="AF145" s="1">
+        <f t="shared" si="184"/>
+        <v>1</v>
+      </c>
+      <c r="AG145">
+        <f t="shared" si="184"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -6941,160 +9125,299 @@
       <c r="I146" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>2</v>
+      </c>
+      <c r="P146" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>4</v>
+      </c>
+      <c r="R146" t="s">
+        <v>5</v>
+      </c>
+      <c r="S146" t="s">
+        <v>6</v>
+      </c>
+      <c r="T146" t="s">
+        <v>8</v>
+      </c>
+      <c r="U146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>A141-53*A149</f>
         <v>1</v>
       </c>
       <c r="B147">
-        <f t="shared" ref="B147:I147" si="109">B141-53*B149</f>
+        <f t="shared" ref="B147:I147" si="185">B141-53*B149</f>
         <v>0</v>
       </c>
       <c r="C147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>14.5</v>
       </c>
       <c r="E147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>-98</v>
       </c>
       <c r="F147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>-6.75</v>
       </c>
       <c r="G147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>-13.25</v>
       </c>
       <c r="H147">
-        <f t="shared" si="109"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="I147">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>14.5</v>
+      </c>
+      <c r="Q147">
+        <v>-98</v>
+      </c>
+      <c r="R147">
+        <v>-6.75</v>
+      </c>
+      <c r="S147">
+        <v>-13.25</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>A142+11*A149</f>
         <v>0</v>
       </c>
       <c r="B148" s="1">
-        <f t="shared" ref="B148:I148" si="110">B142+11*B149</f>
+        <f t="shared" ref="B148:I148" si="186">B142+11*B149</f>
         <v>1</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>0.5</v>
       </c>
       <c r="E148">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>-4</v>
       </c>
       <c r="F148">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>-0.75</v>
       </c>
       <c r="G148">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>2.75</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="I148">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>1</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q148">
+        <v>-4</v>
+      </c>
+      <c r="R148">
+        <v>-0.75</v>
+      </c>
+      <c r="S148">
+        <v>2.75</v>
+      </c>
+      <c r="T148" s="1">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>A143/4</f>
         <v>0</v>
       </c>
       <c r="B149" s="1">
-        <f t="shared" ref="B149:I149" si="111">B143/4</f>
+        <f t="shared" ref="B149:I149" si="187">B143/4</f>
         <v>0</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>1</v>
       </c>
       <c r="D149" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>0.5</v>
       </c>
       <c r="E149">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>-2</v>
       </c>
       <c r="F149">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>-0.25</v>
       </c>
       <c r="G149">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>0.25</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="187"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <v>0.5</v>
+      </c>
+      <c r="Q149">
+        <v>-2</v>
+      </c>
+      <c r="R149">
+        <v>-0.25</v>
+      </c>
+      <c r="S149">
+        <v>0.25</v>
+      </c>
+      <c r="T149" s="1">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="1"/>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>A144-11*A149</f>
         <v>0</v>
       </c>
       <c r="B150" s="1">
-        <f t="shared" ref="B150:I150" si="112">B144-11*B149</f>
+        <f t="shared" ref="B150:I150" si="188">B144-11*B149</f>
         <v>0</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>-0.5</v>
       </c>
       <c r="E150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>4</v>
       </c>
       <c r="F150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>0.75</v>
       </c>
       <c r="G150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>-2.75</v>
       </c>
       <c r="H150" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="I150">
-        <f t="shared" si="112"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="188"/>
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>-0.5</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>0.75</v>
+      </c>
+      <c r="S150">
+        <v>-2.75</v>
+      </c>
+      <c r="T150" s="1">
+        <v>1</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7122,160 +9445,331 @@
       <c r="I152" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>2</v>
+      </c>
+      <c r="P152" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>4</v>
+      </c>
+      <c r="R152" t="s">
+        <v>5</v>
+      </c>
+      <c r="S152" t="s">
+        <v>6</v>
+      </c>
+      <c r="T152" t="s">
+        <v>8</v>
+      </c>
+      <c r="U152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>A147-14.5/0.5*A149</f>
         <v>1</v>
       </c>
       <c r="B153">
-        <f t="shared" ref="B153:I153" si="113">B147-14.5/0.5*B149</f>
+        <f t="shared" ref="B153:I153" si="189">B147-14.5/0.5*B149</f>
         <v>0</v>
       </c>
       <c r="C153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>-29</v>
       </c>
       <c r="D153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>-40</v>
       </c>
       <c r="F153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>0.5</v>
       </c>
       <c r="G153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>-20.5</v>
       </c>
       <c r="H153">
-        <f t="shared" si="113"/>
+        <f t="shared" si="189"/>
         <v>0</v>
       </c>
       <c r="I153">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <f t="shared" ref="M153:U153" si="190">M147-14.5*M154</f>
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="190"/>
+        <v>-29</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="190"/>
+        <v>18</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="190"/>
+        <v>15</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="190"/>
+        <v>-93</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="190"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>A148-A149</f>
         <v>0</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" ref="B154:I154" si="114">B148-B149</f>
+        <f t="shared" ref="B154:I154" si="191">B148-B149</f>
         <v>1</v>
       </c>
       <c r="C154">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>-1</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>-2</v>
       </c>
       <c r="F154">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>-0.5</v>
       </c>
       <c r="G154">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>2.5</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" si="191"/>
         <v>0</v>
       </c>
       <c r="I154">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <f>M148*2</f>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" ref="N154:U154" si="192">N148*2</f>
+        <v>2</v>
+      </c>
+      <c r="O154" s="1">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="P154" s="1">
+        <f t="shared" si="192"/>
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="192"/>
+        <v>-8</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="192"/>
+        <v>-1.5</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="192"/>
+        <v>5.5</v>
+      </c>
+      <c r="T154" s="1">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>A149*2</f>
         <v>0</v>
       </c>
       <c r="B155" s="1">
-        <f t="shared" ref="B155:I155" si="115">B149*2</f>
+        <f t="shared" ref="B155:I155" si="193">B149*2</f>
         <v>0</v>
       </c>
       <c r="C155">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>2</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>1</v>
       </c>
       <c r="E155">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>-4</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>-0.5</v>
       </c>
       <c r="G155">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>0.5</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="193"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <f t="shared" ref="M155:U155" si="194">M149-M148</f>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="194"/>
+        <v>-1</v>
+      </c>
+      <c r="O155" s="1">
+        <f t="shared" si="194"/>
+        <v>1</v>
+      </c>
+      <c r="P155" s="1">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="Q155" s="2">
+        <f t="shared" si="194"/>
+        <v>2</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="194"/>
+        <v>0.5</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="194"/>
+        <v>-2.5</v>
+      </c>
+      <c r="T155" s="1">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="194"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>A150+A149</f>
         <v>0</v>
       </c>
       <c r="B156" s="1">
-        <f t="shared" ref="B156:I156" si="116">B150+B149</f>
+        <f t="shared" ref="B156:I156" si="195">B150+B149</f>
         <v>0</v>
       </c>
       <c r="C156">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>1</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>2</v>
       </c>
       <c r="F156" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>0.5</v>
       </c>
       <c r="G156">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>-2.5</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="195"/>
         <v>1</v>
       </c>
       <c r="I156">
-        <f t="shared" si="116"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="195"/>
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <f t="shared" ref="M156:U156" si="196">M150+M148</f>
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="196"/>
+        <v>1</v>
+      </c>
+      <c r="O156" s="1">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="P156" s="1">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="196"/>
+        <v>0</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="196"/>
+        <v>1</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="196"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7303,157 +9797,871 @@
       <c r="I158" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>2</v>
+      </c>
+      <c r="P158" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>4</v>
+      </c>
+      <c r="R158" t="s">
+        <v>5</v>
+      </c>
+      <c r="S158" t="s">
+        <v>6</v>
+      </c>
+      <c r="T158" t="s">
+        <v>8</v>
+      </c>
+      <c r="U158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>A153-A156</f>
         <v>1</v>
       </c>
       <c r="B159">
-        <f t="shared" ref="B159:I159" si="117">B153-B156</f>
+        <f t="shared" ref="B159:I159" si="197">B153-B156</f>
         <v>0</v>
       </c>
       <c r="C159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>-30</v>
       </c>
       <c r="D159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>-42</v>
       </c>
       <c r="F159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>0</v>
       </c>
       <c r="G159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>-18</v>
       </c>
       <c r="H159">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>-1</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="117"/>
+        <f t="shared" si="197"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <f t="shared" ref="M159:U159" si="198">M153-18*M161</f>
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="198"/>
+        <v>-20</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="198"/>
+        <v>-9</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="198"/>
+        <v>10.5</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="198"/>
+        <v>-70.5</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>A154+A156</f>
         <v>0</v>
       </c>
       <c r="B160" s="1">
-        <f t="shared" ref="B160:I160" si="118">B154+B156</f>
+        <f t="shared" ref="B160:I160" si="199">B154+B156</f>
         <v>1</v>
       </c>
       <c r="C160">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="G160">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="118"/>
+        <f t="shared" si="199"/>
         <v>1</v>
       </c>
       <c r="I160">
-        <f t="shared" si="118"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="199"/>
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <f t="shared" ref="M160:U160" si="200">M154+8*M161</f>
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="200"/>
+        <v>-2</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="200"/>
+        <v>4</v>
+      </c>
+      <c r="P160" s="1">
+        <f t="shared" si="200"/>
+        <v>1</v>
+      </c>
+      <c r="Q160" s="1">
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="R160" s="2">
+        <f t="shared" si="200"/>
+        <v>0.5</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="200"/>
+        <v>-4.5</v>
+      </c>
+      <c r="T160" s="1">
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="200"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>A155+A156</f>
         <v>0</v>
       </c>
       <c r="B161" s="1">
-        <f t="shared" ref="B161:I161" si="119">B155+B156</f>
+        <f t="shared" ref="B161:I161" si="201">B155+B156</f>
         <v>0</v>
       </c>
       <c r="C161">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>3</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>-2</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="G161">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>-2</v>
       </c>
       <c r="H161">
-        <f t="shared" si="119"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="I161">
-        <f t="shared" si="119"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="201"/>
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <f>M155/2</f>
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <f t="shared" ref="N161:U161" si="202">N155/2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="202"/>
+        <v>0.5</v>
+      </c>
+      <c r="P161" s="1">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="1">
+        <f t="shared" si="202"/>
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="202"/>
+        <v>0.25</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="202"/>
+        <v>-1.25</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="202"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>A156*2</f>
         <v>0</v>
       </c>
       <c r="B162" s="1">
-        <f t="shared" ref="B162:I162" si="120">B156*2</f>
+        <f t="shared" ref="B162:I162" si="203">B156*2</f>
         <v>0</v>
       </c>
       <c r="C162">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="D162" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>4</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>1</v>
       </c>
       <c r="G162">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>-5</v>
       </c>
       <c r="H162">
-        <f t="shared" si="120"/>
+        <f t="shared" si="203"/>
         <v>2</v>
       </c>
       <c r="I162">
-        <f t="shared" si="120"/>
-        <v>2</v>
+        <f t="shared" si="203"/>
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <f>M156</f>
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <f t="shared" ref="N162:U162" si="204">N156</f>
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="1">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="1">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="T162" s="1">
+        <f t="shared" si="204"/>
+        <v>1</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="204"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>2</v>
+      </c>
+      <c r="P164" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>4</v>
+      </c>
+      <c r="R164" t="s">
+        <v>5</v>
+      </c>
+      <c r="S164" t="s">
+        <v>6</v>
+      </c>
+      <c r="T164" t="s">
+        <v>8</v>
+      </c>
+      <c r="U164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <f t="shared" ref="M165:U165" si="205">M159-10.5*M166</f>
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="205"/>
+        <v>22</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="205"/>
+        <v>-93</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="205"/>
+        <v>-21</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="205"/>
+        <v>24</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <f>M160*2</f>
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <f t="shared" ref="N166:T166" si="206">N160*2</f>
+        <v>-4</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="206"/>
+        <v>8</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="206"/>
+        <v>2</v>
+      </c>
+      <c r="Q166" s="1">
+        <f t="shared" si="206"/>
+        <v>0</v>
+      </c>
+      <c r="R166" s="1">
+        <f t="shared" si="206"/>
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="206"/>
+        <v>-9</v>
+      </c>
+      <c r="T166" s="1">
+        <f t="shared" si="206"/>
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <f>U160*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <f t="shared" ref="M167:U167" si="207">M161-M160/2</f>
+        <v>0</v>
+      </c>
+      <c r="N167" s="2">
+        <f t="shared" si="207"/>
+        <v>0.5</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="207"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="207"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q167" s="1">
+        <f t="shared" si="207"/>
+        <v>1</v>
+      </c>
+      <c r="R167" s="1">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="207"/>
+        <v>1</v>
+      </c>
+      <c r="T167" s="1">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f>M162</f>
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <f t="shared" ref="N168:U168" si="208">N162</f>
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="1">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="1">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="T168" s="1">
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>2</v>
+      </c>
+      <c r="P170" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>4</v>
+      </c>
+      <c r="R170" t="s">
+        <v>5</v>
+      </c>
+      <c r="S170" t="s">
+        <v>6</v>
+      </c>
+      <c r="T170" t="s">
+        <v>8</v>
+      </c>
+      <c r="U170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <f t="shared" ref="M171:U171" si="209">M165-22*M173</f>
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="209"/>
+        <v>-27</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="209"/>
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="209"/>
+        <v>-44</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="209"/>
+        <v>-20</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <f t="shared" ref="M172:U172" si="210">M166+4*M173</f>
+        <v>0</v>
+      </c>
+      <c r="N172" s="1">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="210"/>
+        <v>-4</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="210"/>
+        <v>-2</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="210"/>
+        <v>8</v>
+      </c>
+      <c r="R172" s="1">
+        <f t="shared" si="210"/>
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="210"/>
+        <v>-1</v>
+      </c>
+      <c r="T172" s="1">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <f>M167*2</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <f t="shared" ref="N173:U173" si="211">N167*2</f>
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="211"/>
+        <v>-3</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="211"/>
+        <v>-1</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="211"/>
+        <v>2</v>
+      </c>
+      <c r="R173" s="1">
+        <f t="shared" si="211"/>
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="211"/>
+        <v>2</v>
+      </c>
+      <c r="T173" s="1">
+        <f t="shared" si="211"/>
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="211"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <f t="shared" ref="M174:U174" si="212">M168-M173</f>
+        <v>0</v>
+      </c>
+      <c r="N174" s="1">
+        <f t="shared" si="212"/>
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="212"/>
+        <v>3</v>
+      </c>
+      <c r="P174" s="2">
+        <f t="shared" si="212"/>
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="212"/>
+        <v>-2</v>
+      </c>
+      <c r="R174" s="1">
+        <f t="shared" si="212"/>
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="212"/>
+        <v>-2</v>
+      </c>
+      <c r="T174" s="1">
+        <f t="shared" si="212"/>
+        <v>1</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="212"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>2</v>
+      </c>
+      <c r="P176" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>4</v>
+      </c>
+      <c r="R176" t="s">
+        <v>5</v>
+      </c>
+      <c r="S176" t="s">
+        <v>6</v>
+      </c>
+      <c r="T176" t="s">
+        <v>8</v>
+      </c>
+      <c r="U176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <f t="shared" ref="M177:U177" si="213">M171-M174</f>
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="213"/>
+        <v>-30</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="213"/>
+        <v>-42</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="213"/>
+        <v>-18</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="213"/>
+        <v>-1</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="213"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <f t="shared" ref="M178:U178" si="214">M172+2*M174</f>
+        <v>0</v>
+      </c>
+      <c r="N178" s="1">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="214"/>
+        <v>2</v>
+      </c>
+      <c r="P178" s="1">
+        <f t="shared" si="214"/>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="214"/>
+        <v>4</v>
+      </c>
+      <c r="R178" s="1">
+        <f t="shared" si="214"/>
+        <v>1</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="214"/>
+        <v>-5</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="214"/>
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="214"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <f t="shared" ref="M179:U179" si="215">M173+M174</f>
+        <v>0</v>
+      </c>
+      <c r="N179" s="1">
+        <f t="shared" si="215"/>
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="P179" s="1">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="R179" s="1">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="215"/>
+        <v>1</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="215"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <f>M174</f>
+        <v>0</v>
+      </c>
+      <c r="N180" s="1">
+        <f t="shared" ref="N180:U180" si="216">N174</f>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="216"/>
+        <v>3</v>
+      </c>
+      <c r="P180" s="1">
+        <f t="shared" si="216"/>
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="216"/>
+        <v>-2</v>
+      </c>
+      <c r="R180" s="1">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="216"/>
+        <v>-2</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="216"/>
+        <v>1</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="216"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
